--- a/data/dividends_info_20260218.xlsx
+++ b/data/dividends_info_20260218.xlsx
@@ -527,11 +527,9 @@
           <t>IT0001031084</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>54.25</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1.290322580645161</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>362</v>
@@ -574,11 +572,9 @@
           <t>IT0001031084</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>54.25</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>4.055299539170507</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>89</v>
@@ -622,10 +618,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19.52499961853027</v>
+        <v>19.89500045776367</v>
       </c>
       <c r="I4" t="n">
-        <v>4.046094829370688</v>
+        <v>3.970846855103823</v>
       </c>
       <c r="J4" t="n">
         <v>89</v>
@@ -669,10 +665,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.723999977111816</v>
+        <v>5.837999820709229</v>
       </c>
       <c r="I5" t="n">
-        <v>3.319357106214894</v>
+        <v>3.254539325712379</v>
       </c>
       <c r="J5" t="n">
         <v>89</v>
@@ -716,10 +712,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.779999732971191</v>
+        <v>8.960000038146973</v>
       </c>
       <c r="I6" t="n">
-        <v>5.814350974100138</v>
+        <v>5.697544618599991</v>
       </c>
       <c r="J6" t="n">
         <v>75</v>
@@ -763,10 +759,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>19.29999923706055</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="I7" t="n">
-        <v>3.886010516310401</v>
+        <v>3.926701492255615</v>
       </c>
       <c r="J7" t="n">
         <v>75</v>
@@ -810,10 +806,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.815000057220459</v>
+        <v>6.84499979019165</v>
       </c>
       <c r="I8" t="n">
-        <v>7.336757091736962</v>
+        <v>7.304602123092259</v>
       </c>
       <c r="J8" t="n">
         <v>61</v>
@@ -857,10 +853,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12.01000022888184</v>
+        <v>12.31999969482422</v>
       </c>
       <c r="I9" t="n">
-        <v>4.496253036710188</v>
+        <v>4.383116991690029</v>
       </c>
       <c r="J9" t="n">
         <v>61</v>
@@ -951,10 +947,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18.14500045776367</v>
+        <v>19.18000030517578</v>
       </c>
       <c r="I11" t="n">
-        <v>3.472030774903855</v>
+        <v>3.284671480583828</v>
       </c>
       <c r="J11" t="n">
         <v>61</v>
@@ -998,10 +994,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>27.71500015258789</v>
+        <v>28.78000068664551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3247338968230034</v>
+        <v>0.3127171572367675</v>
       </c>
       <c r="J12" t="n">
         <v>33</v>
@@ -1092,10 +1088,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.177499994635582</v>
+        <v>0.1729999929666519</v>
       </c>
       <c r="I14" t="n">
-        <v>33.80281792299969</v>
+        <v>34.68208233486218</v>
       </c>
       <c r="J14" t="n">
         <v>-16</v>
@@ -1139,10 +1135,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9.22599983215332</v>
+        <v>9.291000366210938</v>
       </c>
       <c r="I15" t="n">
-        <v>2.492954738611985</v>
+        <v>2.47551384064576</v>
       </c>
       <c r="J15" t="n">
         <v>-30</v>
@@ -1186,10 +1182,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.35200023651123</v>
+        <v>6.314000129699707</v>
       </c>
       <c r="I16" t="n">
-        <v>1.901763153370853</v>
+        <v>1.913208703176654</v>
       </c>
       <c r="J16" t="n">
         <v>-30</v>
@@ -1407,7 +1403,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELES S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1417,7 +1413,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1437,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>ELES S.p.A.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1451,14 +1447,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Yakkyo S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1468,14 +1464,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Unicredit S.p.A.</t>
+          <t>GREEN OLEO S.p.A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1485,14 +1481,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>Haiki+ S.p.A.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1502,14 +1498,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Haiki+ S.p.A.</t>
+          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1519,14 +1515,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GREEN OLEO S.p.A</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1543,7 +1539,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Unicredit S.p.A.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1553,14 +1549,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
+          <t>Yakkyo S.p.A.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1570,14 +1566,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CASTELLO SGR S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1587,14 +1583,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Farmacosmo S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1604,14 +1600,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ferretti S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1628,7 +1624,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Haiki+ S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1638,14 +1634,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>CASTELLO SGR S.p.A.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1655,14 +1651,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Haiki+ S.p.A.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1672,14 +1668,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>Ferretti S.p.A.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1696,7 +1692,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Farmacosmo S.p.A.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1706,14 +1702,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1730,7 +1726,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Datrix S.p.A.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1740,14 +1736,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1764,7 +1760,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Pirelli &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1774,14 +1770,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1798,7 +1794,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1808,14 +1804,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Datrix S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1825,14 +1821,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1842,7 +1838,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1913,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1927,14 +1923,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1944,7 +1940,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2032,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2046,14 +2042,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2070,7 +2066,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2080,14 +2076,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2104,7 +2100,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2114,14 +2110,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2138,7 +2134,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2148,7 +2144,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2189,7 +2185,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2206,7 +2202,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2216,14 +2212,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2233,14 +2229,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2274,7 +2270,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2284,14 +2280,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2308,7 +2304,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2318,7 +2314,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2338,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2359,7 +2355,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2376,7 +2372,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2386,7 +2382,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2403,14 +2399,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2420,14 +2416,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2437,14 +2433,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2454,14 +2450,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2488,14 +2484,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2512,7 +2508,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2522,7 +2518,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2539,14 +2535,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2835,7 +2831,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2845,7 +2841,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2865,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>CALTAGIRONE EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2879,7 +2875,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2984,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2998,14 +2994,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3022,7 +3018,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3032,14 +3028,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3056,7 +3052,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3066,14 +3062,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3083,14 +3079,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3124,7 +3120,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3134,14 +3130,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3151,14 +3147,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3168,7 +3164,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3188,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3202,14 +3198,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3226,7 +3222,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3243,7 +3239,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3253,14 +3249,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3277,7 +3273,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3287,14 +3283,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3328,7 +3324,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3345,7 +3341,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3362,7 +3358,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3372,14 +3368,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3413,7 +3409,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3430,7 +3426,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3447,7 +3443,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3464,7 +3460,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3474,14 +3470,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3498,7 +3494,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3508,14 +3504,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3532,7 +3528,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3542,14 +3538,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3566,7 +3562,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3576,14 +3572,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3600,7 +3596,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3617,7 +3613,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3627,14 +3623,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3644,14 +3640,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3668,7 +3664,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3685,7 +3681,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3695,14 +3691,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3719,7 +3715,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3736,7 +3732,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3753,7 +3749,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3763,14 +3759,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3787,7 +3783,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3797,14 +3793,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3814,14 +3810,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3838,7 +3834,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3855,7 +3851,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3865,14 +3861,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3889,7 +3885,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3906,7 +3902,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3916,14 +3912,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3933,14 +3929,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3950,14 +3946,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3967,14 +3963,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3984,14 +3980,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4008,7 +4004,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4025,7 +4021,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4035,14 +4031,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4052,14 +4048,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4076,7 +4072,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4086,14 +4082,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4110,7 +4106,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4127,7 +4123,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4137,14 +4133,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4178,7 +4174,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4195,7 +4191,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4212,7 +4208,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4229,7 +4225,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4239,14 +4235,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4256,14 +4252,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4280,7 +4276,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4290,14 +4286,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4314,7 +4310,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4324,14 +4320,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4348,7 +4344,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4365,7 +4361,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4382,7 +4378,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4392,14 +4388,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4409,14 +4405,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4433,7 +4429,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4450,7 +4446,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4467,7 +4463,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4501,7 +4497,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4518,7 +4514,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4528,14 +4524,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4545,14 +4541,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4562,14 +4558,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4579,14 +4575,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4603,7 +4599,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4620,7 +4616,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4637,7 +4633,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4647,14 +4643,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4671,7 +4667,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4681,14 +4677,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4705,7 +4701,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4715,14 +4711,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4739,7 +4735,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4749,14 +4745,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4773,7 +4769,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>FRENDY ENERGY S.p.A.</t>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4790,7 +4786,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4807,7 +4803,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>Ecomembrane S.p.A.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4817,14 +4813,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4841,7 +4837,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>FRENDY ENERGY S.p.A.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4858,7 +4854,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4868,14 +4864,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4885,14 +4881,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4902,14 +4898,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4926,7 +4922,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Ecomembrane S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4943,7 +4939,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4953,14 +4949,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4970,14 +4966,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4987,7 +4983,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -5004,14 +5000,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5028,7 +5024,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5045,7 +5041,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>OPS Italia S.p.A.</t>
+          <t>gAIn360 S.p.A.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5079,7 +5075,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Telesia S.p.A.</t>
+          <t>OPS Italia S.p.A.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5096,7 +5092,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>gAIn360 S.p.A.</t>
+          <t>NEXT RE SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5130,7 +5126,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DiaSorin S.p.A</t>
+          <t>Gambero Rosso S.p.A.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5147,7 +5143,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>DHH S.p.A.</t>
+          <t>DiaSorin S.p.A</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5164,7 +5160,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
+          <t>DHH S.p.A.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5181,7 +5177,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Gambero Rosso S.p.A.</t>
+          <t>Telesia S.p.A.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5224,202 +5220,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DHH S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DiaSorin S.p.A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gambero Rosso S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Haiki+ S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OPS Italia S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pattern S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Telesia S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>gAIn360 S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>